--- a/documents/BA.planing.Roadmap.xlsx
+++ b/documents/BA.planing.Roadmap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5DC856-1AAF-45FB-B227-795CCE9562DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ED333D-125B-9A46-B75D-8A9B69488E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Roadmap" sheetId="9" r:id="rId1"/>
@@ -1415,446 +1415,233 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1545932</xdr:colOff>
+      <xdr:colOff>2001380</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>381</xdr:rowOff>
+      <xdr:rowOff>17517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1170186</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3231931</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>486211</xdr:rowOff>
+      <xdr:rowOff>227723</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="Group 31">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6D738-8DDC-4432-84EC-1C5E3A074D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0140E772-3E73-4B3E-B002-F25B829EBD5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7057294" y="1241915"/>
-          <a:ext cx="2547444" cy="485830"/>
-          <a:chOff x="1836939" y="1202794"/>
-          <a:chExt cx="934122" cy="487138"/>
+          <a:off x="8307587" y="1252483"/>
+          <a:ext cx="1230551" cy="210206"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="TextBox 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0140E772-3E73-4B3E-B002-F25B829EBD5E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1836939" y="1441082"/>
-            <a:ext cx="934122" cy="248850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Research</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Flowchart: Manual Operation 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B45D61-06F1-448D-9D25-6E2BD123209E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2259188" y="1202794"/>
-            <a:ext cx="94573" cy="213035"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Research</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11028</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>206710</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1762753</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>898026</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>840827</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>481175</xdr:rowOff>
+      <xdr:rowOff>280275</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="Group 34">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AB8444-9668-424A-9B6A-E6E4437AB53D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59155B3C-A814-43CA-A26B-B1C76175CF8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10179787" y="1192055"/>
-          <a:ext cx="1686769" cy="530654"/>
-          <a:chOff x="1883746" y="1181100"/>
-          <a:chExt cx="934122" cy="531810"/>
+          <a:off x="11405994" y="1249892"/>
+          <a:ext cx="1057523" cy="265349"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="TextBox 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59155B3C-A814-43CA-A26B-B1C76175CF8F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1883746" y="1464060"/>
-            <a:ext cx="934122" cy="248850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>User</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1" baseline="0">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Input Validation</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="700" b="1">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
               <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Flowchart: Manual Operation 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF234BC-6A88-414B-956E-51D4013EE0D9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2231322" y="1181100"/>
-            <a:ext cx="137314" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1" baseline="0">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Input Validation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="900" b="1">
+            <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>602079</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>201029</xdr:rowOff>
+      <xdr:colOff>260493</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>557632</xdr:colOff>
+      <xdr:colOff>216046</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>451599</xdr:rowOff>
+      <xdr:rowOff>267666</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="Group 37">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844B56DA-F5F3-4BA0-BC59-177587951D3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F7FB4A-DE97-4955-B190-51CE23FA4B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11618234" y="1186374"/>
-          <a:ext cx="1650346" cy="506759"/>
-          <a:chOff x="1861857" y="1181100"/>
-          <a:chExt cx="934122" cy="507703"/>
+          <a:off x="12846631" y="1255318"/>
+          <a:ext cx="1882449" cy="247314"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="TextBox 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F7FB4A-DE97-4955-B190-51CE23FA4B3D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1861857" y="1439953"/>
-            <a:ext cx="934122" cy="248850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Pic</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1" baseline="0">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>/Sketch Upload </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="700" b="1">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
               <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Flowchart: Manual Operation 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA81E59-EF84-4221-B6BC-CAAC9D93CF9B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2252135" y="1181100"/>
-            <a:ext cx="137314" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>Pic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1" baseline="0">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>/Sketch Upload </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="900" b="1">
+            <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2366,82 +2153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>675105</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>187160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>951550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>832992</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>226613</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flowchart: Manual Operation 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4306CA1-7017-7C48-8A7A-08B2B4C93697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8629316" y="1156371"/>
-          <a:ext cx="276445" cy="293453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualOperation">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>815475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180474</xdr:rowOff>
+      <xdr:rowOff>17517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>771028</xdr:colOff>
+      <xdr:colOff>306551</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>427788</xdr:rowOff>
+      <xdr:rowOff>236482</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2456,8 +2177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7807159" y="1403685"/>
-          <a:ext cx="1880606" cy="247314"/>
+          <a:off x="14382578" y="1252483"/>
+          <a:ext cx="1400456" cy="218965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2489,7 +2210,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="700" b="1">
+            <a:rPr lang="en-IN" sz="900" b="1">
               <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -2503,435 +2224,222 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>794180</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>173789</xdr:rowOff>
+      <xdr:colOff>583973</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>767924</xdr:colOff>
+      <xdr:colOff>557717</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>424359</xdr:rowOff>
+      <xdr:rowOff>266701</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="60" name="Group 37">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD4A837-5B9B-5445-936F-D491F96AF3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58E2D33-424F-B746-8396-0F2669224563}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13505128" y="1159134"/>
-          <a:ext cx="1668537" cy="506759"/>
-          <a:chOff x="1816242" y="1181100"/>
-          <a:chExt cx="934122" cy="507703"/>
+          <a:off x="15097007" y="1254353"/>
+          <a:ext cx="1900641" cy="247314"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="TextBox 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58E2D33-424F-B746-8396-0F2669224563}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1816242" y="1439953"/>
-            <a:ext cx="934122" cy="248850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="800" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Upload on</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="800" b="1" baseline="0">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Blockchain</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="800" b="1">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
               <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="Flowchart: Manual Operation 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E34D787-C93F-8442-B2FB-1E83881171E0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2252135" y="1181100"/>
-            <a:ext cx="137314" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>694823</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>556126</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>430682</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="Group 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A63725-9F2F-6548-BF42-75D95B3782BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14253168" y="1174983"/>
-          <a:ext cx="2567717" cy="497233"/>
-          <a:chOff x="1765589" y="1187826"/>
-          <a:chExt cx="854111" cy="498178"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="TextBox 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFF67AC-7BB2-5449-BEE9-2A6F424A609A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1765589" y="1443434"/>
-            <a:ext cx="854111" cy="242570"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Frontend</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Flowchart: Manual Operation 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C8BF11-6029-F947-9439-2F22BE9712F7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2123292" y="1187826"/>
-            <a:ext cx="137314" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>Upload on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1" baseline="0">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Blockchain</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="900" b="1">
+            <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>633187</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177513</xdr:rowOff>
+      <xdr:colOff>72961</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>557658</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1699172</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>418556</xdr:rowOff>
+      <xdr:rowOff>281786</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="66" name="Group 34">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0A670C-0B49-114D-99C0-B879EBEB9232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFF67AC-7BB2-5449-BEE9-2A6F424A609A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="15038928" y="1162858"/>
-          <a:ext cx="2630885" cy="497232"/>
-          <a:chOff x="1890498" y="1160920"/>
-          <a:chExt cx="934122" cy="498177"/>
+          <a:off x="16512892" y="1252483"/>
+          <a:ext cx="1626211" cy="264269"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="TextBox 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D054C020-F19A-4C41-8AA8-41B039066456}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1890498" y="1410247"/>
-            <a:ext cx="934122" cy="248850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Release</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="Flowchart: Manual Operation 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A5EECE-1192-F24F-9B93-D867DF71DE0F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2295465" y="1160920"/>
-            <a:ext cx="137314" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Frontend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1506482</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595586</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>252145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D054C020-F19A-4C41-8AA8-41B039066456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17946413" y="1252483"/>
+          <a:ext cx="1208690" cy="234628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Release</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3738,142 +3246,71 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2520203</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>239866</xdr:rowOff>
+      <xdr:colOff>3247171</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>408186</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1418898</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>469882</xdr:rowOff>
+      <xdr:rowOff>280275</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="80" name="Group 31">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47705015-AE8E-4032-943F-33F67156D2CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA5CAA1-7D79-428C-8EE9-E3B08810FC7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8031565" y="1225211"/>
-          <a:ext cx="2545380" cy="486205"/>
-          <a:chOff x="1836939" y="1202794"/>
-          <a:chExt cx="934122" cy="487138"/>
+          <a:off x="9553378" y="1252483"/>
+          <a:ext cx="1508761" cy="262758"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="TextBox 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA5CAA1-7D79-428C-8EE9-E3B08810FC7B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1836939" y="1441082"/>
-            <a:ext cx="934122" cy="248850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-IN" sz="700" b="1">
-                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>IDE Setup</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="Flowchart: Manual Operation 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D955CD79-B268-4426-9FC7-8823259AF9E2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2259188" y="1202794"/>
-            <a:ext cx="94573" cy="213035"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualOperation">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>IDE Setup</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4283,6 +3720,406 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2785243</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3153104</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F06FC2-0ECD-804B-B3E4-54F7F46214D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9091450" y="851796"/>
+          <a:ext cx="367861" cy="409445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>858345</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1226206</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Grafik 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D4057D-7281-9B4A-85B2-DE8355AAD062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10501586" y="860556"/>
+          <a:ext cx="367861" cy="409444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166411</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Grafik 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B832CC5-D1D5-4048-AA20-170C3C1F92D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12384691" y="867103"/>
+          <a:ext cx="367858" cy="409441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604346</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8759</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Grafik 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E50E5B-8189-3E41-940B-1B127756076F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14153932" y="858344"/>
+          <a:ext cx="367861" cy="409444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Grafik 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A2789E-3FC4-AD4D-BCDD-5B1CE60A710F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15275035" y="858344"/>
+          <a:ext cx="367861" cy="409444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52551</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>420412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Grafik 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C34B1E-33C9-3847-885A-923A3885ED93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16492482" y="867103"/>
+          <a:ext cx="367861" cy="409444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1059793</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1427654</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Grafik 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8CFC59-E638-FE4A-BFFA-C87931816718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17499724" y="875862"/>
+          <a:ext cx="367861" cy="409444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>665655</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Grafik 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F153C2C8-1D5E-A549-BB63-CBDE0B23CAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18673380" y="653622"/>
+          <a:ext cx="551792" cy="614167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4581,29 +4418,29 @@
   </sheetPr>
   <dimension ref="B1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="108" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="3" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="54.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="1.1640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="26" style="22" customWidth="1"/>
-    <col min="9" max="13" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" style="22" customWidth="1"/>
-    <col min="15" max="17" width="12.7109375" style="22" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="20"/>
+    <col min="9" max="13" width="12.6640625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="27.83203125" style="22" customWidth="1"/>
+    <col min="15" max="17" width="12.6640625" style="22" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4691,7 +4528,7 @@
       <c r="Q5" s="79"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="2:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4767,7 +4604,7 @@
       <c r="Q7" s="28"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="2:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4786,7 +4623,7 @@
       <c r="Q8" s="60"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="69" t="s">
         <v>5</v>
@@ -4807,7 +4644,7 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="70"/>
       <c r="D10" s="15"/>
@@ -4826,7 +4663,7 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="71"/>
       <c r="D11" s="15"/>
@@ -4845,7 +4682,7 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="27"/>
       <c r="D12" s="15"/>
@@ -4864,7 +4701,7 @@
       <c r="Q12" s="63"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="72" t="s">
         <v>8</v>
@@ -4885,7 +4722,7 @@
       <c r="Q13" s="65"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="73"/>
       <c r="D14" s="15"/>
@@ -4904,7 +4741,7 @@
       <c r="Q14" s="65"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="73"/>
       <c r="D15" s="15"/>
@@ -4923,7 +4760,7 @@
       <c r="Q15" s="65"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="74"/>
       <c r="D16" s="15"/>
@@ -4942,7 +4779,7 @@
       <c r="Q16" s="65"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="27"/>
       <c r="D17" s="15"/>
@@ -4961,7 +4798,7 @@
       <c r="Q17" s="63"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="75" t="s">
         <v>7</v>
@@ -4982,7 +4819,7 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="76"/>
       <c r="D19" s="15"/>
@@ -5001,7 +4838,7 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="19" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="77"/>
       <c r="D20" s="15"/>
